--- a/data/pca/factorExposure/factorExposure_2009-03-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-03-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.017232164799849</v>
+        <v>-0.01679897489377564</v>
       </c>
       <c r="C2">
-        <v>0.002196652845652628</v>
+        <v>0.001593381867112813</v>
       </c>
       <c r="D2">
-        <v>0.008810815891832819</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.009457585305514942</v>
+      </c>
+      <c r="E2">
+        <v>0.01758662268610212</v>
+      </c>
+      <c r="F2">
+        <v>-0.007540696424785841</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08254221212041185</v>
+        <v>-0.08618494815276159</v>
       </c>
       <c r="C4">
-        <v>0.01942080984616951</v>
+        <v>0.01541940262033421</v>
       </c>
       <c r="D4">
-        <v>0.08604784375883473</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08891638604010615</v>
+      </c>
+      <c r="E4">
+        <v>-0.05071969213216523</v>
+      </c>
+      <c r="F4">
+        <v>0.01612712168046334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.0007864333729944992</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0001067142644150132</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.001122589420748756</v>
+      </c>
+      <c r="E5">
+        <v>0.0003498201449526065</v>
+      </c>
+      <c r="F5">
+        <v>-0.001806209040047032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1613044499330229</v>
+        <v>-0.1669914665850307</v>
       </c>
       <c r="C6">
-        <v>0.03821126039310616</v>
+        <v>0.03563145826791241</v>
       </c>
       <c r="D6">
-        <v>-0.01741928135783253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.008161701002178738</v>
+      </c>
+      <c r="E6">
+        <v>-0.06298998177660964</v>
+      </c>
+      <c r="F6">
+        <v>0.009010789405486197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05433183051475415</v>
+        <v>-0.05921460298947404</v>
       </c>
       <c r="C7">
-        <v>0.001377766999075133</v>
+        <v>-0.001485057915059532</v>
       </c>
       <c r="D7">
-        <v>0.0538951637743318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05784403370441912</v>
+      </c>
+      <c r="E7">
+        <v>-0.03237032857281431</v>
+      </c>
+      <c r="F7">
+        <v>0.05647878735797836</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05797804767274486</v>
+        <v>-0.05486306863133614</v>
       </c>
       <c r="C8">
-        <v>-0.009400398266640899</v>
+        <v>-0.01109235833496137</v>
       </c>
       <c r="D8">
-        <v>0.03419386766359674</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03556983823603552</v>
+      </c>
+      <c r="E8">
+        <v>0.02325037746074129</v>
+      </c>
+      <c r="F8">
+        <v>-0.02066594511098806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06311718484018218</v>
+        <v>-0.06677165895942901</v>
       </c>
       <c r="C9">
-        <v>0.01481387726625305</v>
+        <v>0.01094596034982296</v>
       </c>
       <c r="D9">
-        <v>0.08930962204757036</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.09185440076649495</v>
+      </c>
+      <c r="E9">
+        <v>-0.06607712566300727</v>
+      </c>
+      <c r="F9">
+        <v>0.02397519839441212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.09780614765354397</v>
+        <v>-0.09394319598402003</v>
       </c>
       <c r="C10">
-        <v>0.02504119827112405</v>
+        <v>0.02603520754479975</v>
       </c>
       <c r="D10">
-        <v>-0.160348767921863</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1508734458312464</v>
+      </c>
+      <c r="E10">
+        <v>0.0858418278063139</v>
+      </c>
+      <c r="F10">
+        <v>-0.01309937298194597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08468861908338697</v>
+        <v>-0.08256257551784482</v>
       </c>
       <c r="C11">
-        <v>0.01685431612133156</v>
+        <v>0.01194575545766331</v>
       </c>
       <c r="D11">
-        <v>0.1372107804670221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1366594085877934</v>
+      </c>
+      <c r="E11">
+        <v>-0.03670758211642844</v>
+      </c>
+      <c r="F11">
+        <v>-0.006473090844373967</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.08929813208045836</v>
+        <v>-0.0850975600585424</v>
       </c>
       <c r="C12">
-        <v>0.01462588474321605</v>
+        <v>0.00919532256184788</v>
       </c>
       <c r="D12">
-        <v>0.1439611861030914</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1507483301975461</v>
+      </c>
+      <c r="E12">
+        <v>-0.03320698570406076</v>
+      </c>
+      <c r="F12">
+        <v>0.00575293448748233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04150679456971447</v>
+        <v>-0.04240550983783255</v>
       </c>
       <c r="C13">
-        <v>0.007385410106020992</v>
+        <v>0.003701472711625328</v>
       </c>
       <c r="D13">
-        <v>0.05086899393901649</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05830616230532686</v>
+      </c>
+      <c r="E13">
+        <v>-0.003516355252267491</v>
+      </c>
+      <c r="F13">
+        <v>0.01911707920791782</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01908098005334248</v>
+        <v>-0.02192826857593676</v>
       </c>
       <c r="C14">
-        <v>0.01479150365264153</v>
+        <v>0.01384982899208868</v>
       </c>
       <c r="D14">
-        <v>0.04243159777701883</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.04285017449759013</v>
+      </c>
+      <c r="E14">
+        <v>-0.03124204639611571</v>
+      </c>
+      <c r="F14">
+        <v>0.003739760629657381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03178570784240183</v>
+        <v>-0.03315565978872763</v>
       </c>
       <c r="C15">
-        <v>0.00793628571509436</v>
+        <v>0.006397942339074889</v>
       </c>
       <c r="D15">
-        <v>0.05538606268048522</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.05382498018503988</v>
+      </c>
+      <c r="E15">
+        <v>-0.02571086855340054</v>
+      </c>
+      <c r="F15">
+        <v>0.01530289920103098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.06565973702121029</v>
+        <v>-0.06534340592511938</v>
       </c>
       <c r="C16">
-        <v>0.00536218532406049</v>
+        <v>0.0006475719093928613</v>
       </c>
       <c r="D16">
-        <v>0.1386196716823162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1446515307997458</v>
+      </c>
+      <c r="E16">
+        <v>-0.04524547919708484</v>
+      </c>
+      <c r="F16">
+        <v>-0.0118703903578121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.002722304526144418</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.001124837837164792</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002765400916523124</v>
+      </c>
+      <c r="E17">
+        <v>-0.0001616164604207738</v>
+      </c>
+      <c r="F17">
+        <v>-0.007345202899316548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.03063867377581649</v>
+        <v>-0.04725469849151902</v>
       </c>
       <c r="C18">
-        <v>-2.46682980331681e-05</v>
+        <v>0.0003688711258387841</v>
       </c>
       <c r="D18">
-        <v>0.03010244217095519</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.02796304923128922</v>
+      </c>
+      <c r="E18">
+        <v>0.01896842486049512</v>
+      </c>
+      <c r="F18">
+        <v>0.002175548098109953</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06176703009248687</v>
+        <v>-0.06119493591259516</v>
       </c>
       <c r="C20">
-        <v>0.005031631806809027</v>
+        <v>0.002223207154352745</v>
       </c>
       <c r="D20">
-        <v>0.09473900149874638</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.09533147194900958</v>
+      </c>
+      <c r="E20">
+        <v>-0.060986143529749</v>
+      </c>
+      <c r="F20">
+        <v>-0.00521055101532064</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04028219649964582</v>
+        <v>-0.04266248984390694</v>
       </c>
       <c r="C21">
-        <v>0.01026863335794091</v>
+        <v>0.007818492145154187</v>
       </c>
       <c r="D21">
-        <v>0.04943063241828969</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0486481524652508</v>
+      </c>
+      <c r="E21">
+        <v>0.01532882133577161</v>
+      </c>
+      <c r="F21">
+        <v>0.008187488551812396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04561941292854926</v>
+        <v>-0.04453884062204033</v>
       </c>
       <c r="C22">
-        <v>0.004848815495997862</v>
+        <v>0.002642550004938234</v>
       </c>
       <c r="D22">
-        <v>0.009863729013281702</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.01804108933664976</v>
+      </c>
+      <c r="E22">
+        <v>0.03856844226322439</v>
+      </c>
+      <c r="F22">
+        <v>-0.1270037625357872</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04562843528741778</v>
+        <v>-0.04454649982727155</v>
       </c>
       <c r="C23">
-        <v>0.004851353868726518</v>
+        <v>0.00264485757860659</v>
       </c>
       <c r="D23">
-        <v>0.009856039893931499</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.01803513804741136</v>
+      </c>
+      <c r="E23">
+        <v>0.03859032132722613</v>
+      </c>
+      <c r="F23">
+        <v>-0.1270439469086404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07256412548350774</v>
+        <v>-0.07119650676914632</v>
       </c>
       <c r="C24">
-        <v>0.006135305978471891</v>
+        <v>0.001703669109858077</v>
       </c>
       <c r="D24">
-        <v>0.1372832800100512</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1358340937972052</v>
+      </c>
+      <c r="E24">
+        <v>-0.03972222145730694</v>
+      </c>
+      <c r="F24">
+        <v>0.005552861575090377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07874217668326398</v>
+        <v>-0.07667423057523218</v>
       </c>
       <c r="C25">
-        <v>0.009106724358609142</v>
+        <v>0.004840112093122026</v>
       </c>
       <c r="D25">
-        <v>0.1278876312881347</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1260522524743866</v>
+      </c>
+      <c r="E25">
+        <v>-0.02531604018764518</v>
+      </c>
+      <c r="F25">
+        <v>0.02140681749775606</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05667633838723717</v>
+        <v>-0.06174507908707201</v>
       </c>
       <c r="C26">
-        <v>0.01893970795607654</v>
+        <v>0.01625856985757437</v>
       </c>
       <c r="D26">
-        <v>0.06635813104770691</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06703638916615981</v>
+      </c>
+      <c r="E26">
+        <v>-0.004595295740980805</v>
+      </c>
+      <c r="F26">
+        <v>-0.007916581059198749</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1568374127568712</v>
+        <v>-0.1608385008838723</v>
       </c>
       <c r="C28">
-        <v>0.030625906109929</v>
+        <v>0.03313718032132697</v>
       </c>
       <c r="D28">
-        <v>-0.2470840286951316</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.244308822168766</v>
+      </c>
+      <c r="E28">
+        <v>0.01747921512735765</v>
+      </c>
+      <c r="F28">
+        <v>0.04599646042271123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02530963277563851</v>
+        <v>-0.02747668798735479</v>
       </c>
       <c r="C29">
-        <v>0.009701664105360303</v>
+        <v>0.009197345010309565</v>
       </c>
       <c r="D29">
-        <v>0.04066637881876999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03968613680628448</v>
+      </c>
+      <c r="E29">
+        <v>0.00231371392521018</v>
+      </c>
+      <c r="F29">
+        <v>-0.02064933248291434</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.04744871362001548</v>
+        <v>-0.0473727973746692</v>
       </c>
       <c r="C30">
-        <v>0.005025432767218812</v>
+        <v>0.001667275612221476</v>
       </c>
       <c r="D30">
-        <v>0.07444840461640591</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.07879857654986039</v>
+      </c>
+      <c r="E30">
+        <v>-0.07993431823385608</v>
+      </c>
+      <c r="F30">
+        <v>0.07079949589829243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05147967670628704</v>
+        <v>-0.05212843702816224</v>
       </c>
       <c r="C31">
-        <v>0.01947551828830288</v>
+        <v>0.01721584887954953</v>
       </c>
       <c r="D31">
-        <v>0.0339247691551136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03683640037109729</v>
+      </c>
+      <c r="E31">
+        <v>-0.0128325730418128</v>
+      </c>
+      <c r="F31">
+        <v>-0.03111215374260834</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04305365418589611</v>
+        <v>-0.04873836900559225</v>
       </c>
       <c r="C32">
-        <v>0.001192323868344122</v>
+        <v>-0.001432591777318068</v>
       </c>
       <c r="D32">
-        <v>0.03729650733232211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03951868830492605</v>
+      </c>
+      <c r="E32">
+        <v>-0.01494807819392679</v>
+      </c>
+      <c r="F32">
+        <v>-0.01985476501048859</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08252672200688069</v>
+        <v>-0.08484617312536349</v>
       </c>
       <c r="C33">
-        <v>0.01281948642050559</v>
+        <v>0.007799677773715792</v>
       </c>
       <c r="D33">
-        <v>0.1071845811606836</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1149762112587748</v>
+      </c>
+      <c r="E33">
+        <v>-0.04844472472981839</v>
+      </c>
+      <c r="F33">
+        <v>-0.01072352715574835</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06017379338261809</v>
+        <v>-0.06065492081779934</v>
       </c>
       <c r="C34">
-        <v>0.01445469029621737</v>
+        <v>0.009833987191148443</v>
       </c>
       <c r="D34">
-        <v>0.1128054807972148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1206129127113669</v>
+      </c>
+      <c r="E34">
+        <v>-0.03601867195426409</v>
+      </c>
+      <c r="F34">
+        <v>0.02692612966906328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02646858904080986</v>
+        <v>-0.02786700399875319</v>
       </c>
       <c r="C35">
-        <v>0.005048917556804339</v>
+        <v>0.004415920693359193</v>
       </c>
       <c r="D35">
-        <v>0.01238116384539995</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01523057500825278</v>
+      </c>
+      <c r="E35">
+        <v>-0.01204990860091609</v>
+      </c>
+      <c r="F35">
+        <v>-0.01724348371826291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02291947927220873</v>
+        <v>-0.02727146899784863</v>
       </c>
       <c r="C36">
-        <v>0.008803132658560364</v>
+        <v>0.007748771219310959</v>
       </c>
       <c r="D36">
-        <v>0.04684511034282024</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04978808312353438</v>
+      </c>
+      <c r="E36">
+        <v>-0.03944488749928274</v>
+      </c>
+      <c r="F36">
+        <v>-0.011883249951623</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.003368686829544978</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0008546918260542344</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003673482551226407</v>
+      </c>
+      <c r="E37">
+        <v>0.001501319078799076</v>
+      </c>
+      <c r="F37">
+        <v>-3.29471847460616e-05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.09473545025165472</v>
+        <v>-0.08736009614705137</v>
       </c>
       <c r="C39">
-        <v>0.02018186002538053</v>
+        <v>0.0145471464740315</v>
       </c>
       <c r="D39">
-        <v>0.1703058699125925</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1632170286448282</v>
+      </c>
+      <c r="E39">
+        <v>-0.02931992532723543</v>
+      </c>
+      <c r="F39">
+        <v>-0.01144608689181117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04376438699191289</v>
+        <v>-0.04927859163690465</v>
       </c>
       <c r="C40">
-        <v>0.01219048628655986</v>
+        <v>0.01060053359887853</v>
       </c>
       <c r="D40">
-        <v>0.04352393993929939</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04696216658021964</v>
+      </c>
+      <c r="E40">
+        <v>0.02089736406096838</v>
+      </c>
+      <c r="F40">
+        <v>0.00342011483521931</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02715471908219491</v>
+        <v>-0.02921551811100773</v>
       </c>
       <c r="C41">
-        <v>0.008694382857787862</v>
+        <v>0.008071629812697954</v>
       </c>
       <c r="D41">
-        <v>0.0201227899152138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.02050202075960681</v>
+      </c>
+      <c r="E41">
+        <v>0.008359381734202321</v>
+      </c>
+      <c r="F41">
+        <v>-0.004118869965279611</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04154002856818532</v>
+        <v>-0.04053964476189922</v>
       </c>
       <c r="C43">
-        <v>0.009502344225771186</v>
+        <v>0.008433549325610225</v>
       </c>
       <c r="D43">
-        <v>0.03451768370725858</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03217466528852175</v>
+      </c>
+      <c r="E43">
+        <v>0.006057605271884997</v>
+      </c>
+      <c r="F43">
+        <v>-0.0232350630256011</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.05743689803407722</v>
+        <v>-0.06606579624754874</v>
       </c>
       <c r="C44">
-        <v>0.0212616401109753</v>
+        <v>0.01834372431138588</v>
       </c>
       <c r="D44">
-        <v>0.07704428039935141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.08649840153153605</v>
+      </c>
+      <c r="E44">
+        <v>-0.2205883591315613</v>
+      </c>
+      <c r="F44">
+        <v>0.07834835897158018</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0002196981309825514</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>3.963240506623068e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-4.08603093066435e-05</v>
+      </c>
+      <c r="E45">
+        <v>0.0004417909163712006</v>
+      </c>
+      <c r="F45">
+        <v>0.000289982982231365</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02389442032774721</v>
+        <v>-0.02608420781826209</v>
       </c>
       <c r="C46">
-        <v>0.00497045293196211</v>
+        <v>0.004241602487715884</v>
       </c>
       <c r="D46">
-        <v>0.02720895575926416</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.02686948944567795</v>
+      </c>
+      <c r="E46">
+        <v>0.001077122749352462</v>
+      </c>
+      <c r="F46">
+        <v>-0.03067905733214539</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05483053859411944</v>
+        <v>-0.05361155497896796</v>
       </c>
       <c r="C47">
-        <v>0.00786481517986855</v>
+        <v>0.005936246941833629</v>
       </c>
       <c r="D47">
-        <v>0.02165097459869073</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.022484076982062</v>
+      </c>
+      <c r="E47">
+        <v>0.01350657255131286</v>
+      </c>
+      <c r="F47">
+        <v>-0.05342155261435796</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04810404271979073</v>
+        <v>-0.05213761764245853</v>
       </c>
       <c r="C48">
-        <v>0.006262575920007376</v>
+        <v>0.003929862748202949</v>
       </c>
       <c r="D48">
-        <v>0.06572310280662742</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.06408745232523202</v>
+      </c>
+      <c r="E48">
+        <v>-0.006557060917942864</v>
+      </c>
+      <c r="F48">
+        <v>0.02202534515224515</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1951597612210433</v>
+        <v>-0.1973453810603224</v>
       </c>
       <c r="C49">
-        <v>0.02979847248476049</v>
+        <v>0.02522927465198011</v>
       </c>
       <c r="D49">
-        <v>-0.005788465299106223</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.001445551831285698</v>
+      </c>
+      <c r="E49">
+        <v>-0.04343689253845502</v>
+      </c>
+      <c r="F49">
+        <v>0.04130319260386684</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04924746807606906</v>
+        <v>-0.05220272793646279</v>
       </c>
       <c r="C50">
-        <v>0.01481752060021785</v>
+        <v>0.0130940360866054</v>
       </c>
       <c r="D50">
-        <v>0.03360118819333391</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03510455352175876</v>
+      </c>
+      <c r="E50">
+        <v>-0.02384998101056396</v>
+      </c>
+      <c r="F50">
+        <v>-0.01835402082226112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1469242613944185</v>
+        <v>-0.1409735006252522</v>
       </c>
       <c r="C52">
-        <v>0.02535191866056756</v>
+        <v>0.02118004413706161</v>
       </c>
       <c r="D52">
-        <v>0.04260736022673347</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04362301483804561</v>
+      </c>
+      <c r="E52">
+        <v>-0.05700756185051963</v>
+      </c>
+      <c r="F52">
+        <v>-0.01924287966820902</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1766660233815922</v>
+        <v>-0.1685404660235534</v>
       </c>
       <c r="C53">
-        <v>0.03042247127259789</v>
+        <v>0.02671423381808863</v>
       </c>
       <c r="D53">
-        <v>0.01528950964476336</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01581623512040917</v>
+      </c>
+      <c r="E53">
+        <v>-0.1118466646730447</v>
+      </c>
+      <c r="F53">
+        <v>-0.008424019051849724</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01302720105754031</v>
+        <v>-0.01653821190806721</v>
       </c>
       <c r="C54">
-        <v>0.01146863367264217</v>
+        <v>0.01093435274309398</v>
       </c>
       <c r="D54">
-        <v>0.03454848166844508</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03300429583086583</v>
+      </c>
+      <c r="E54">
+        <v>-0.008141879283364732</v>
+      </c>
+      <c r="F54">
+        <v>-0.01434239906550928</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.119829378938215</v>
+        <v>-0.1172081757244641</v>
       </c>
       <c r="C55">
-        <v>0.02580638720470413</v>
+        <v>0.0228785073426528</v>
       </c>
       <c r="D55">
-        <v>0.01419766724828765</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02014613931532579</v>
+      </c>
+      <c r="E55">
+        <v>-0.068452891382767</v>
+      </c>
+      <c r="F55">
+        <v>-0.04106048801793531</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1805087396956486</v>
+        <v>-0.1745580364021382</v>
       </c>
       <c r="C56">
-        <v>0.02806439980175073</v>
+        <v>0.02472139317172177</v>
       </c>
       <c r="D56">
-        <v>0.004092942649424467</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.005283699826574151</v>
+      </c>
+      <c r="E56">
+        <v>-0.0746157199337093</v>
+      </c>
+      <c r="F56">
+        <v>-0.03314824262165847</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04604951986142999</v>
+        <v>-0.04512398967176934</v>
       </c>
       <c r="C58">
-        <v>0.004599057456620926</v>
+        <v>0.000422304384546116</v>
       </c>
       <c r="D58">
-        <v>0.09249097568573073</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.09814185804646432</v>
+      </c>
+      <c r="E58">
+        <v>0.01632312479418623</v>
+      </c>
+      <c r="F58">
+        <v>-0.03742369490212896</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1764709096306437</v>
+        <v>-0.1805412627141212</v>
       </c>
       <c r="C59">
-        <v>0.0304557837574309</v>
+        <v>0.03237757410352515</v>
       </c>
       <c r="D59">
-        <v>-0.2108109695832316</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2092295484543706</v>
+      </c>
+      <c r="E59">
+        <v>0.07731104893852571</v>
+      </c>
+      <c r="F59">
+        <v>-0.008416758923776612</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2230974136981972</v>
+        <v>-0.2181822535242115</v>
       </c>
       <c r="C60">
-        <v>0.009528302612666347</v>
+        <v>0.004434379692120095</v>
       </c>
       <c r="D60">
-        <v>0.02015985603227919</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.02109182924159174</v>
+      </c>
+      <c r="E60">
+        <v>0.0164068109387899</v>
+      </c>
+      <c r="F60">
+        <v>-0.001037838015542264</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.07071779762096179</v>
+        <v>-0.06728481367890837</v>
       </c>
       <c r="C61">
-        <v>0.01500425169736044</v>
+        <v>0.0103743238934155</v>
       </c>
       <c r="D61">
-        <v>0.1260857966647457</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.124903034074326</v>
+      </c>
+      <c r="E61">
+        <v>-0.01641374801480483</v>
+      </c>
+      <c r="F61">
+        <v>-0.01522231327442738</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1707210556199033</v>
+        <v>-0.1664244883805604</v>
       </c>
       <c r="C62">
-        <v>0.03050972834179862</v>
+        <v>0.02689359745480046</v>
       </c>
       <c r="D62">
-        <v>0.009597271414804402</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.01270490948382483</v>
+      </c>
+      <c r="E62">
+        <v>-0.06610755557750489</v>
+      </c>
+      <c r="F62">
+        <v>-0.04135737022236272</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04063960778708851</v>
+        <v>-0.04637915405878332</v>
       </c>
       <c r="C63">
-        <v>0.005495685366721228</v>
+        <v>0.003216140903772346</v>
       </c>
       <c r="D63">
-        <v>0.07102507707338529</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07577731593980203</v>
+      </c>
+      <c r="E63">
+        <v>-0.01310386974439913</v>
+      </c>
+      <c r="F63">
+        <v>-0.01978008799493545</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1141985169512989</v>
+        <v>-0.1113234700427519</v>
       </c>
       <c r="C64">
-        <v>0.02022941344551621</v>
+        <v>0.01603774402910759</v>
       </c>
       <c r="D64">
-        <v>0.05676611926543465</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05831218298871205</v>
+      </c>
+      <c r="E64">
+        <v>-0.03487218890834161</v>
+      </c>
+      <c r="F64">
+        <v>0.001050575230235426</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.150193593975623</v>
+        <v>-0.1560584816023939</v>
       </c>
       <c r="C65">
-        <v>0.04405292129837918</v>
+        <v>0.04214934358533427</v>
       </c>
       <c r="D65">
-        <v>-0.0475953292060368</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0359070582773103</v>
+      </c>
+      <c r="E65">
+        <v>-0.07123838840132818</v>
+      </c>
+      <c r="F65">
+        <v>-0.005127560929870335</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1161819368496588</v>
+        <v>-0.1066529230684522</v>
       </c>
       <c r="C66">
-        <v>0.019116472998819</v>
+        <v>0.01285459113928532</v>
       </c>
       <c r="D66">
-        <v>0.1509685009181265</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1485399906082021</v>
+      </c>
+      <c r="E66">
+        <v>-0.02918710402831133</v>
+      </c>
+      <c r="F66">
+        <v>-0.009601653066524284</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05907250827356479</v>
+        <v>-0.051941073945316</v>
       </c>
       <c r="C67">
-        <v>0.006269994944904312</v>
+        <v>0.003991000538835203</v>
       </c>
       <c r="D67">
-        <v>0.06025549907549185</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.06119234752177664</v>
+      </c>
+      <c r="E67">
+        <v>0.0508969003044402</v>
+      </c>
+      <c r="F67">
+        <v>-0.07473909753896472</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1261548387232653</v>
+        <v>-0.1315564083363399</v>
       </c>
       <c r="C68">
-        <v>0.0384245051121938</v>
+        <v>0.04229379082092644</v>
       </c>
       <c r="D68">
-        <v>-0.2568615823463571</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2543512861109464</v>
+      </c>
+      <c r="E68">
+        <v>0.03115887525040052</v>
+      </c>
+      <c r="F68">
+        <v>0.07541372720957747</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03920585680617424</v>
+        <v>-0.03876194405906759</v>
       </c>
       <c r="C69">
-        <v>0.003549757769775577</v>
+        <v>0.002481411902994714</v>
       </c>
       <c r="D69">
-        <v>0.01292115598890704</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01301137805109673</v>
+      </c>
+      <c r="E69">
+        <v>-0.01495957459291638</v>
+      </c>
+      <c r="F69">
+        <v>-0.05147856500114298</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.07200839519644271</v>
+        <v>-0.07293393582305939</v>
       </c>
       <c r="C70">
-        <v>-0.02140335140032841</v>
+        <v>-0.02323551627302299</v>
       </c>
       <c r="D70">
-        <v>0.05185959953022586</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.04769155045093687</v>
+      </c>
+      <c r="E70">
+        <v>0.3282982513138485</v>
+      </c>
+      <c r="F70">
+        <v>-0.174436452321912</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1469181640435316</v>
+        <v>-0.1531422679063811</v>
       </c>
       <c r="C71">
-        <v>0.04452598285861606</v>
+        <v>0.04807997022056138</v>
       </c>
       <c r="D71">
-        <v>-0.2694833492231086</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.262842658687332</v>
+      </c>
+      <c r="E71">
+        <v>0.03807459736730034</v>
+      </c>
+      <c r="F71">
+        <v>0.08568478841860588</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1391238911250215</v>
+        <v>-0.1455885951811097</v>
       </c>
       <c r="C72">
-        <v>0.03432656657686084</v>
+        <v>0.03269040139739902</v>
       </c>
       <c r="D72">
-        <v>0.01782728043039714</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01294373564285911</v>
+      </c>
+      <c r="E72">
+        <v>-0.06446144939449858</v>
+      </c>
+      <c r="F72">
+        <v>-0.02918981822351866</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.1939554532955887</v>
+        <v>-0.1988701098804468</v>
       </c>
       <c r="C73">
-        <v>0.022791048253672</v>
+        <v>0.01694453940022789</v>
       </c>
       <c r="D73">
-        <v>0.01480636934568976</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02138904222191174</v>
+      </c>
+      <c r="E73">
+        <v>-0.05636310753302278</v>
+      </c>
+      <c r="F73">
+        <v>-0.05204416694551416</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08872342057210959</v>
+        <v>-0.08854516243111044</v>
       </c>
       <c r="C74">
-        <v>0.01727391393302664</v>
+        <v>0.01488208376609997</v>
       </c>
       <c r="D74">
-        <v>0.02119276924631817</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02504748194969915</v>
+      </c>
+      <c r="E74">
+        <v>-0.07900885246176949</v>
+      </c>
+      <c r="F74">
+        <v>-0.01560207221570827</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.128131461041868</v>
+        <v>-0.1206376416317275</v>
       </c>
       <c r="C75">
-        <v>0.03557289800749898</v>
+        <v>0.03168917301108668</v>
       </c>
       <c r="D75">
-        <v>0.03609010996158403</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03802739777524415</v>
+      </c>
+      <c r="E75">
+        <v>-0.06228565390964389</v>
+      </c>
+      <c r="F75">
+        <v>-0.06216047387455531</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.0751743322000142</v>
+        <v>-0.08984813359445472</v>
       </c>
       <c r="C77">
-        <v>0.01415390258979019</v>
+        <v>0.01096303762864631</v>
       </c>
       <c r="D77">
-        <v>0.1215627753343177</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1218187233030825</v>
+      </c>
+      <c r="E77">
+        <v>-0.05116586218492758</v>
+      </c>
+      <c r="F77">
+        <v>0.0206669762159249</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09998711148477776</v>
+        <v>-0.1017796507905389</v>
       </c>
       <c r="C78">
-        <v>0.04478753674620217</v>
+        <v>0.04143642189822105</v>
       </c>
       <c r="D78">
-        <v>0.1527216474760292</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1432143963952759</v>
+      </c>
+      <c r="E78">
+        <v>-0.0478104054247412</v>
+      </c>
+      <c r="F78">
+        <v>0.03691133116905713</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.168417415068632</v>
+        <v>-0.1639234413696512</v>
       </c>
       <c r="C79">
-        <v>0.03370633288811517</v>
+        <v>0.02958917155775136</v>
       </c>
       <c r="D79">
-        <v>0.02469735471067883</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02650333298379131</v>
+      </c>
+      <c r="E79">
+        <v>-0.03835299446694367</v>
+      </c>
+      <c r="F79">
+        <v>-0.03942432728362399</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07812007045937978</v>
+        <v>-0.07636099803122755</v>
       </c>
       <c r="C80">
-        <v>0.0042891000349467</v>
+        <v>0.001555050136877755</v>
       </c>
       <c r="D80">
-        <v>0.0526253253321618</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05381892869750503</v>
+      </c>
+      <c r="E80">
+        <v>0.01636185915862976</v>
+      </c>
+      <c r="F80">
+        <v>-0.04725906504599735</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1154721052412115</v>
+        <v>-0.1097022414470949</v>
       </c>
       <c r="C81">
-        <v>0.03695902636001436</v>
+        <v>0.03471851555278751</v>
       </c>
       <c r="D81">
-        <v>0.008630975502053738</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01359016621702965</v>
+      </c>
+      <c r="E81">
+        <v>-0.05016465868402701</v>
+      </c>
+      <c r="F81">
+        <v>-0.06387269534825726</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1609905853662394</v>
+        <v>-0.1591756651309027</v>
       </c>
       <c r="C82">
-        <v>0.03345999822241537</v>
+        <v>0.02997425284460493</v>
       </c>
       <c r="D82">
-        <v>0.004714199324227279</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.004797864635162404</v>
+      </c>
+      <c r="E82">
+        <v>-0.1039791419286659</v>
+      </c>
+      <c r="F82">
+        <v>-0.00538388434991122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05643119078921763</v>
+        <v>-0.05199743025491101</v>
       </c>
       <c r="C83">
-        <v>0.00644279387909062</v>
+        <v>0.004103798042963155</v>
       </c>
       <c r="D83">
-        <v>0.04933726979875794</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04680355199115632</v>
+      </c>
+      <c r="E83">
+        <v>0.02469523685278627</v>
+      </c>
+      <c r="F83">
+        <v>-0.007067117828548936</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05301971385027744</v>
+        <v>-0.04998843865224869</v>
       </c>
       <c r="C84">
-        <v>0.01311800231466037</v>
+        <v>0.01051805282798491</v>
       </c>
       <c r="D84">
-        <v>0.07852284896428875</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07727113020648385</v>
+      </c>
+      <c r="E84">
+        <v>-0.009950979852590709</v>
+      </c>
+      <c r="F84">
+        <v>-0.004582476700026119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1392843062424355</v>
+        <v>-0.1338539763892538</v>
       </c>
       <c r="C85">
-        <v>0.03678095633891013</v>
+        <v>0.03348331418393555</v>
       </c>
       <c r="D85">
-        <v>0.01678291105077938</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01859517577585638</v>
+      </c>
+      <c r="E85">
+        <v>-0.08050107924324083</v>
+      </c>
+      <c r="F85">
+        <v>-0.0174157209094093</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08392028205405869</v>
+        <v>-0.08272431928255564</v>
       </c>
       <c r="C86">
-        <v>-0.003136458882346298</v>
+        <v>-0.006323806798617342</v>
       </c>
       <c r="D86">
-        <v>0.05001777260616773</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07201061432443842</v>
+      </c>
+      <c r="E86">
+        <v>0.5541448607486029</v>
+      </c>
+      <c r="F86">
+        <v>-0.5928654363702656</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.0871912982137142</v>
+        <v>-0.08768535145477009</v>
       </c>
       <c r="C87">
-        <v>0.02775482190095098</v>
+        <v>0.02325621477092392</v>
       </c>
       <c r="D87">
-        <v>0.08459658722065623</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08685742737955593</v>
+      </c>
+      <c r="E87">
+        <v>-0.009060739371312876</v>
+      </c>
+      <c r="F87">
+        <v>0.1117015967836537</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06223146613059503</v>
+        <v>-0.06108571629426104</v>
       </c>
       <c r="C88">
-        <v>0.007038245711745583</v>
+        <v>0.004501910633357599</v>
       </c>
       <c r="D88">
-        <v>0.06871716561480939</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.06471938594128991</v>
+      </c>
+      <c r="E88">
+        <v>-0.01739332561370196</v>
+      </c>
+      <c r="F88">
+        <v>-0.01027708157475054</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1342818024749058</v>
+        <v>-0.138814268196141</v>
       </c>
       <c r="C89">
-        <v>0.01824882583709339</v>
+        <v>0.02213117996041915</v>
       </c>
       <c r="D89">
-        <v>-0.231388385947988</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2354853845942532</v>
+      </c>
+      <c r="E89">
+        <v>0.04330414304579904</v>
+      </c>
+      <c r="F89">
+        <v>0.08223037706473928</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1580258138762918</v>
+        <v>-0.1679876324684679</v>
       </c>
       <c r="C90">
-        <v>0.0408973395272406</v>
+        <v>0.04519413014717363</v>
       </c>
       <c r="D90">
-        <v>-0.2570476138839597</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2589196260849567</v>
+      </c>
+      <c r="E90">
+        <v>0.06670479773517302</v>
+      </c>
+      <c r="F90">
+        <v>0.1165424786639527</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1265654978204197</v>
+        <v>-0.1215119542106791</v>
       </c>
       <c r="C91">
-        <v>0.02777235855433043</v>
+        <v>0.02560419128611515</v>
       </c>
       <c r="D91">
-        <v>-0.01037521826438846</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.007698530305105731</v>
+      </c>
+      <c r="E91">
+        <v>-0.03856595668871269</v>
+      </c>
+      <c r="F91">
+        <v>-0.09403537956214168</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1563165583202972</v>
+        <v>-0.1593257304334688</v>
       </c>
       <c r="C92">
-        <v>0.03136497873147489</v>
+        <v>0.03536884634084111</v>
       </c>
       <c r="D92">
-        <v>-0.2889140591662518</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2922869135254804</v>
+      </c>
+      <c r="E92">
+        <v>0.05073008151463205</v>
+      </c>
+      <c r="F92">
+        <v>0.07465496668686601</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1625784959742452</v>
+        <v>-0.1708849902870122</v>
       </c>
       <c r="C93">
-        <v>0.03681138914176474</v>
+        <v>0.04000850692737739</v>
       </c>
       <c r="D93">
-        <v>-0.2472121156524998</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.249734700352206</v>
+      </c>
+      <c r="E93">
+        <v>0.02328328512632836</v>
+      </c>
+      <c r="F93">
+        <v>0.05830747541557164</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1265528659915434</v>
+        <v>-0.119525422914267</v>
       </c>
       <c r="C94">
-        <v>0.031101956724189</v>
+        <v>0.02700683696017338</v>
       </c>
       <c r="D94">
-        <v>0.04976613298206917</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.05080020346794496</v>
+      </c>
+      <c r="E94">
+        <v>-0.05907605609115644</v>
+      </c>
+      <c r="F94">
+        <v>-0.0609864024690361</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.125374378182273</v>
+        <v>-0.1276759461213292</v>
       </c>
       <c r="C95">
-        <v>0.01326408875555551</v>
+        <v>0.007709291756148589</v>
       </c>
       <c r="D95">
-        <v>0.1105113070360858</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1181693993551875</v>
+      </c>
+      <c r="E95">
+        <v>-0.01533935497101486</v>
+      </c>
+      <c r="F95">
+        <v>-0.0336473341392533</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.170077588959868</v>
+        <v>-0.1512057851225737</v>
       </c>
       <c r="C96">
-        <v>-0.9797561901687872</v>
+        <v>-0.981907106713527</v>
       </c>
       <c r="D96">
-        <v>-0.0313252186959244</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05229665735294198</v>
+      </c>
+      <c r="E96">
+        <v>-0.06471715205415084</v>
+      </c>
+      <c r="F96">
+        <v>-0.01018878855002936</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1941756976505132</v>
+        <v>-0.1956327362264959</v>
       </c>
       <c r="C97">
-        <v>0.006464459581871548</v>
+        <v>0.001528358400328381</v>
       </c>
       <c r="D97">
-        <v>-0.02020555022054899</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01691482485266222</v>
+      </c>
+      <c r="E97">
+        <v>0.1335027076009876</v>
+      </c>
+      <c r="F97">
+        <v>-0.1076745547806391</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.190852510446425</v>
+        <v>-0.198440350470478</v>
       </c>
       <c r="C98">
-        <v>0.01844814667686473</v>
+        <v>0.01300237959157993</v>
       </c>
       <c r="D98">
-        <v>-0.0008983219557657292</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.003784004913499074</v>
+      </c>
+      <c r="E98">
+        <v>0.1349175254872412</v>
+      </c>
+      <c r="F98">
+        <v>0.0552796793500455</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05645950322036943</v>
+        <v>-0.05616379712421562</v>
       </c>
       <c r="C99">
-        <v>-0.0005098417176796753</v>
+        <v>-0.00262818183849935</v>
       </c>
       <c r="D99">
-        <v>0.05277034032950152</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.05451677107212938</v>
+      </c>
+      <c r="E99">
+        <v>-0.00226608437409041</v>
+      </c>
+      <c r="F99">
+        <v>-0.004189667741714123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.117994324626417</v>
+        <v>-0.1116790177055896</v>
       </c>
       <c r="C100">
-        <v>-0.03397205816013832</v>
+        <v>-0.04068309910517447</v>
       </c>
       <c r="D100">
-        <v>0.3007645827930057</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.2850060984301497</v>
+      </c>
+      <c r="E100">
+        <v>0.5783079019247823</v>
+      </c>
+      <c r="F100">
+        <v>0.6625382271575219</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.0253262609135235</v>
+        <v>-0.02754369285894193</v>
       </c>
       <c r="C101">
-        <v>0.009717923434971619</v>
+        <v>0.009232669492313165</v>
       </c>
       <c r="D101">
-        <v>0.04014180780694412</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03919344256247904</v>
+      </c>
+      <c r="E101">
+        <v>0.004587901660651237</v>
+      </c>
+      <c r="F101">
+        <v>-0.02201131883127385</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
